--- a/data/transects_slope_elev_curv_mikey/elevation_of_inflection_fig_info.xlsx
+++ b/data/transects_slope_elev_curv_mikey/elevation_of_inflection_fig_info.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sam\Documents\HS_project\data\transects_slope_elev_curv_mikey\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF3B24EF-EFBE-4DA1-9A11-3B52E116C8CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E77C834E-DD9C-4943-8E33-7E59AF259225}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{2CA05A8F-0E91-45FF-B3C9-D6AEECDC17CA}"/>
+    <workbookView xWindow="-96" yWindow="0" windowWidth="11712" windowHeight="12336" xr2:uid="{2CA05A8F-0E91-45FF-B3C9-D6AEECDC17CA}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -6691,13 +6691,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4B5E896-3E39-4707-A194-50FCC9365308}">
   <dimension ref="A1:M8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" zoomScale="85" zoomScaleNormal="141" workbookViewId="0">
-      <selection activeCell="K4" sqref="K4"/>
+    <sheetView tabSelected="1" topLeftCell="F10" zoomScale="85" zoomScaleNormal="141" workbookViewId="0">
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="7" customWidth="1"/>
+    <col min="1" max="1" width="22.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="4" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="14.88671875" customWidth="1"/>
     <col min="4" max="4" width="13.44140625" customWidth="1"/>
     <col min="5" max="5" width="22.88671875" bestFit="1" customWidth="1"/>

--- a/data/transects_slope_elev_curv_mikey/elevation_of_inflection_fig_info.xlsx
+++ b/data/transects_slope_elev_curv_mikey/elevation_of_inflection_fig_info.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sam\Documents\HS_project\data\transects_slope_elev_curv_mikey\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E77C834E-DD9C-4943-8E33-7E59AF259225}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA9F55C0-9882-49C0-B320-5DF0DD1342C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="0" windowWidth="11712" windowHeight="12336" xr2:uid="{2CA05A8F-0E91-45FF-B3C9-D6AEECDC17CA}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{2CA05A8F-0E91-45FF-B3C9-D6AEECDC17CA}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -6695,23 +6695,23 @@
       <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="22.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.453125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="4" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.88671875" customWidth="1"/>
-    <col min="4" max="4" width="13.44140625" customWidth="1"/>
-    <col min="5" max="5" width="22.88671875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="36.33203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="31.88671875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="31.88671875" customWidth="1"/>
-    <col min="9" max="9" width="17.33203125" customWidth="1"/>
-    <col min="10" max="10" width="31.109375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="31.109375" customWidth="1"/>
-    <col min="12" max="13" width="39.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.90625" customWidth="1"/>
+    <col min="4" max="4" width="13.453125" customWidth="1"/>
+    <col min="5" max="5" width="22.90625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="36.36328125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="31.90625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="31.90625" customWidth="1"/>
+    <col min="9" max="9" width="17.36328125" customWidth="1"/>
+    <col min="10" max="10" width="31.08984375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="31.08984375" customWidth="1"/>
+    <col min="12" max="13" width="39.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -6749,7 +6749,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>3</v>
       </c>
@@ -6793,7 +6793,7 @@
         <v>1.1000000000000001</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>1</v>
       </c>
@@ -6837,7 +6837,7 @@
         <v>0.53</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>2</v>
       </c>
@@ -6881,7 +6881,7 @@
         <v>0.48</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>3</v>
       </c>
@@ -6925,7 +6925,7 @@
         <v>3.76</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>2</v>
       </c>
@@ -6969,7 +6969,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>1</v>
       </c>
@@ -7013,7 +7013,7 @@
         <v>0.35</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>4</v>
       </c>
